--- a/Annex Q/Q3_schedule.xlsx
+++ b/Annex Q/Q3_schedule.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10610"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/Desktop/SP_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adakwan/Dropbox/TB QUALITY INDIA 2014/-1000 - RESULTS DISSEMINATION/9999 SP Manual/99999 SP MANUAL/-Release1.1/Annex Q/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77B877-204E-EF40-959C-0493F4F1213C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="1000"/>
+    <workbookView xWindow="-1200" yWindow="-19780" windowWidth="25600" windowHeight="16060" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="O3_schedule" sheetId="27" r:id="rId1"/>
+    <sheet name="Q3_schedule_wide" sheetId="30" r:id="rId1"/>
+    <sheet name="Q3_fieldwork_tracking" sheetId="29" r:id="rId2"/>
+    <sheet name="Q3_attrition_tracking" sheetId="31" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">O3_schedule!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Q3_fieldwork_tracking!$A$1:$AN$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="65">
   <si>
     <t xml:space="preserve">Name of the Doctor </t>
   </si>
@@ -41,9 +44,6 @@
     <t>Mobile No</t>
   </si>
   <si>
-    <t>Clinic Name</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -65,6 +65,99 @@
     <t>Locality</t>
   </si>
   <si>
+    <t>Visit1 SP ID</t>
+  </si>
+  <si>
+    <t>Visit1 SP_Name</t>
+  </si>
+  <si>
+    <t>Visit1 SP Date</t>
+  </si>
+  <si>
+    <t>Visit1 Completed</t>
+  </si>
+  <si>
+    <t>Visit1 Incomplete Reason
+1 = Temporarily Unavailable
+2 = Permanently Unavailable
+3 = Not Located
+4 = Refused to See SP
+5 = Waited 3 Hours
+6 = Duplicate Provider
+7 = Made Appointment
+8 = Asked to Return Later
+9 = Specialist
+0 = Other</t>
+  </si>
+  <si>
+    <t>Visit1 Iserdd Incomplete Reason</t>
+  </si>
+  <si>
+    <t>Visit2 SP ID</t>
+  </si>
+  <si>
+    <t>Visit2 SP_Name</t>
+  </si>
+  <si>
+    <t>Visit2 SP Date</t>
+  </si>
+  <si>
+    <t>Visit2 Completed</t>
+  </si>
+  <si>
+    <t>Visit2 Incomplete Reason
+1 = Temporarily Unavailable
+2 = Permanently Unavailable
+3 = Not Located
+4 = Refused to See SP
+5 = Waited 3 Hours
+6 = Duplicate Provider
+7 = Made Appointment
+8 = Asked to Return Later
+9 = Specialist
+0 = Other</t>
+  </si>
+  <si>
+    <t>Visit2 Iserdd Incomplete Reason</t>
+  </si>
+  <si>
+    <t>Visit3 SP ID</t>
+  </si>
+  <si>
+    <t>Visit3 SP_Name</t>
+  </si>
+  <si>
+    <t>Visit3 SP Date</t>
+  </si>
+  <si>
+    <t>Visit3 Completed</t>
+  </si>
+  <si>
+    <t>Visit3 Incomplete Reason
+1 = Temporarily Unavailable
+2 = Permanently Unavailable
+3 = Not Located
+4 = Refused to See SP
+5 = Waited 3 Hours
+6 = Duplicate Provider
+7 = Made Appointment
+8 = Asked to Return Later
+9 = Specialist
+0 = Other</t>
+  </si>
+  <si>
+    <t>Visit3 Iserdd Incomplete Reason</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Form ID</t>
+  </si>
+  <si>
     <t>SP1</t>
   </si>
   <si>
@@ -80,8 +173,83 @@
     <t>YES</t>
   </si>
   <si>
+    <t>Completed Date</t>
+  </si>
+  <si>
+    <t>Incomplete Reason</t>
+  </si>
+  <si>
+    <t>HC0001</t>
+  </si>
+  <si>
+    <t>HC0002</t>
+  </si>
+  <si>
+    <t>HC0003</t>
+  </si>
+  <si>
+    <t>HC0004</t>
+  </si>
+  <si>
+    <t>Case Variant</t>
+  </si>
+  <si>
+    <t>Interaction Count</t>
+  </si>
+  <si>
+    <t>Found at Listed Address?</t>
+  </si>
+  <si>
+    <t>Temporarily Away?</t>
+  </si>
+  <si>
+    <t>If Temporarily Away, When Will Return?</t>
+  </si>
+  <si>
+    <t>Permanently Closed or Shifted?</t>
+  </si>
+  <si>
+    <t>Reason for Change</t>
+  </si>
+  <si>
+    <t>New Address</t>
+  </si>
+  <si>
+    <t>New Address Outside of Sampling Area?</t>
+  </si>
+  <si>
+    <t>Found at New Address?</t>
+  </si>
+  <si>
+    <t>Source of info?</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Facility Name</t>
+  </si>
+  <si>
+    <t>Provider Name</t>
+  </si>
+  <si>
+    <t>Contact Phone</t>
+  </si>
+  <si>
+    <t>Facility Landmark</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Directions</t>
+  </si>
+  <si>
+    <t>Facility ID</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Clinic Type: </t>
+      <t xml:space="preserve">Facility Type: </t>
     </r>
     <r>
       <rPr>
@@ -96,11 +264,21 @@
       <t>Single provider clinic=0, multi provider clinic=1</t>
     </r>
   </si>
+  <si>
+    <t>Facility Type: Single provider clinic=0, multi provider clinic=1</t>
+  </si>
+  <si>
+    <t>High Risk:
+No=0, Yes=1</t>
+  </si>
+  <si>
+    <t>Facility-level interaction= 1 General walk in =2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,15 +321,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -159,8 +343,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="661">
+  <cellStyleXfs count="663">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -822,8 +1035,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -838,8 +1053,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="661">
+  <cellStyles count="663">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1170,6 +1419,7 @@
     <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1500,6 +1750,7 @@
     <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1507,6 +1758,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1796,95 +2050,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88FD8E0-CB50-0E4C-B88A-A565727D49F1}">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" style="3"/>
-    <col min="17" max="16384" width="14.83203125" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:17" s="15" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>9010001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1894,21 +2139,26 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>9010002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1918,24 +2168,28 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>9020003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1945,21 +2199,26 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>9030004</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1969,21 +2228,26 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9040005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1993,21 +2257,26 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9040006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2017,21 +2286,26 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9040007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2041,15 +2315,22 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9041008</v>
       </c>
-      <c r="F9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2059,24 +2340,28 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9040009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2086,21 +2371,26 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9040010</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2110,21 +2400,26 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>9041011</v>
+        <v>9040011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2134,24 +2429,28 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>9041012</v>
+        <v>9040012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2161,24 +2460,28 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>9050013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2188,21 +2491,26 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>9050014</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2212,24 +2520,28 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>9051015</v>
+        <v>9050015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2239,21 +2551,26 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>9050016</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2263,21 +2580,26 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>9050017</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2287,21 +2609,26 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>9050018</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2311,24 +2638,28 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>9050019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2338,24 +2669,28 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>9050020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2365,9 +2700,1792 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852CD669-D6C1-C04D-8B01-113E203947E3}">
+  <dimension ref="A1:AN46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="14" customWidth="1"/>
+    <col min="8" max="9" width="10" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" style="3"/>
+    <col min="22" max="25" width="10.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="10.1640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="10.1640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="71.5" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14"/>
+      <c r="D2" s="2">
+        <v>9010001</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AN2" s="13"/>
+    </row>
+    <row r="3" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+      <c r="D3" s="2">
+        <v>9010001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AN3" s="13"/>
+    </row>
+    <row r="4" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="D4" s="2">
+        <v>9010002</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AN4" s="13"/>
+    </row>
+    <row r="5" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
+      <c r="D5" s="2">
+        <v>9010002</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AN5" s="13"/>
+    </row>
+    <row r="6" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="D6" s="2">
+        <v>9020003</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AN6" s="13"/>
+    </row>
+    <row r="7" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="D7" s="2">
+        <v>9020003</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AN7" s="13"/>
+    </row>
+    <row r="8" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="D8" s="2">
+        <v>9020003</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AN8" s="13"/>
+    </row>
+    <row r="9" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="D9" s="2">
+        <v>9030004</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AN9" s="13"/>
+    </row>
+    <row r="10" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="D10" s="2">
+        <v>9030004</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AN10" s="13"/>
+    </row>
+    <row r="11" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="D11" s="2">
+        <v>9040005</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" s="2">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AN11" s="13"/>
+    </row>
+    <row r="12" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="D12" s="2">
+        <v>9040005</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" s="2">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AN12" s="13"/>
+    </row>
+    <row r="13" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="D13" s="2">
+        <v>9040006</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" s="2">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AN13" s="13"/>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="D14" s="2">
+        <v>9040006</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" s="2">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AN14" s="13"/>
+    </row>
+    <row r="15" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="D15" s="2">
+        <v>9040007</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AN15" s="13"/>
+    </row>
+    <row r="16" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="D16" s="2">
+        <v>9040007</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" s="2">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AN16" s="13"/>
+    </row>
+    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="D17" s="2">
+        <v>9040009</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" s="2">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AN17" s="13"/>
+    </row>
+    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="D18" s="2">
+        <v>9040009</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" s="2">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AN18" s="13"/>
+    </row>
+    <row r="19" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="D19" s="2">
+        <v>9040009</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" s="2">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AN19" s="13"/>
+    </row>
+    <row r="20" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="D20" s="2">
+        <v>9040010</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" s="2">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AN20" s="13"/>
+    </row>
+    <row r="21" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="D21" s="2">
+        <v>9040010</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" s="2">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AN21" s="13"/>
+    </row>
+    <row r="22" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="D22" s="2">
+        <v>9040011</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="2">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AN22" s="13"/>
+    </row>
+    <row r="23" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="D23" s="2">
+        <v>9040011</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" s="2">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AN23" s="13"/>
+    </row>
+    <row r="24" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="D24" s="2">
+        <v>9040012</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" s="2">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AN24" s="13"/>
+    </row>
+    <row r="25" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="D25" s="2">
+        <v>9040012</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" s="2">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AN25" s="13"/>
+    </row>
+    <row r="26" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="D26" s="2">
+        <v>9040012</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AN26" s="13"/>
+    </row>
+    <row r="27" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
+      <c r="D27" s="2">
+        <v>9050013</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" s="2">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AN27" s="13"/>
+    </row>
+    <row r="28" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="14"/>
+      <c r="D28" s="2">
+        <v>9050013</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AN28" s="13"/>
+    </row>
+    <row r="29" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="D29" s="2">
+        <v>9050013</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29" s="2">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AN29" s="13"/>
+    </row>
+    <row r="30" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="D30" s="2">
+        <v>9050014</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="2">
+        <v>5</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AN30" s="13"/>
+    </row>
+    <row r="31" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="D31" s="2">
+        <v>9050014</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31" s="2">
+        <v>5</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AN31" s="13"/>
+    </row>
+    <row r="32" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="D32" s="2">
+        <v>9050015</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32" s="2">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AN32" s="13"/>
+    </row>
+    <row r="33" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="D33" s="2">
+        <v>9050015</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33" s="2">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AN33" s="13"/>
+    </row>
+    <row r="34" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="D34" s="2">
+        <v>9050015</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34" s="2">
+        <v>5</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AN34" s="13"/>
+    </row>
+    <row r="35" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="D35" s="2">
+        <v>9050016</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35" s="2">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AN35" s="13"/>
+    </row>
+    <row r="36" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="D36" s="2">
+        <v>9050016</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36" s="2">
+        <v>5</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AN36" s="13"/>
+    </row>
+    <row r="37" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="D37" s="2">
+        <v>9050017</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37" s="2">
+        <v>5</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AN37" s="13"/>
+    </row>
+    <row r="38" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="D38" s="2">
+        <v>9050017</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38" s="2">
+        <v>5</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AN38" s="13"/>
+    </row>
+    <row r="39" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="D39" s="2">
+        <v>9050018</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39" s="2">
+        <v>5</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AN39" s="13"/>
+    </row>
+    <row r="40" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="D40" s="2">
+        <v>9050018</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40" s="2">
+        <v>5</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AN40" s="13"/>
+    </row>
+    <row r="41" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="D41" s="2">
+        <v>9050019</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41" s="2">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AN41" s="13"/>
+    </row>
+    <row r="42" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
+      <c r="D42" s="2">
+        <v>9050019</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" s="2">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AN42" s="13"/>
+    </row>
+    <row r="43" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="14"/>
+      <c r="D43" s="2">
+        <v>9050019</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43" s="2">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AN43" s="13"/>
+    </row>
+    <row r="44" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="14"/>
+      <c r="D44" s="2">
+        <v>9050020</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44" s="2">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AN44" s="13"/>
+    </row>
+    <row r="45" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
+      <c r="D45" s="2">
+        <v>9050020</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45" s="2">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AN45" s="13"/>
+    </row>
+    <row r="46" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
+      <c r="D46" s="2">
+        <v>9050020</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46" s="2">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AN46" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7445755E-C4F6-2843-9EC8-89D56B68D8C1}">
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11" style="16" customWidth="1"/>
+    <col min="3" max="7" width="13.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="27" style="16" customWidth="1"/>
+    <col min="9" max="11" width="13.83203125" style="16" customWidth="1"/>
+    <col min="12" max="20" width="20.83203125" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>